--- a/database.xlsx
+++ b/database.xlsx
@@ -8,27 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Core\Programming\REPOS\Pacemaker-DCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D60E616-ACC0-4FF8-B6D4-40F01D5D97F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC772113-6BBA-4F58-AD97-17FB99FFE107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7" yWindow="80" windowWidth="25520" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="USERS" sheetId="2" r:id="rId1"/>
-    <sheet name="PARAMETERS" sheetId="5" r:id="rId2"/>
+    <sheet name="USERS" sheetId="1" r:id="rId1"/>
+    <sheet name="PARAMETERS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>ParametersID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>UserID</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>Mode</t>
   </si>
   <si>
@@ -108,12 +111,6 @@
   </si>
   <si>
     <t>Recovery Time</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -149,7 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -166,56 +165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C32B3FF7-42B0-4AB1-9A86-7B325051FAA0}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{8F24A971-3410-4233-B6D1-D4BD6105D863}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C85AD14-A1F8-4F05-8462-C52B1D34953B}" name="UserID"/>
-    <tableColumn id="2" xr3:uid="{FD794B11-EF01-4FE2-8CBA-0FF88229A0F2}" name="Username"/>
-    <tableColumn id="3" xr3:uid="{FD233089-A21B-49F9-B71E-68EF03B8B092}" name="Password"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7635D648-ADCD-4DBC-A43D-0F01C27E6048}" name="Table1" displayName="Table1" ref="A1:AC2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:AC2" xr:uid="{58C310A1-9BD2-4159-8E51-825657BC6C2A}"/>
-  <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{434E62B9-C6FC-4CA7-8130-D369694B89CB}" name="ParametersID"/>
-    <tableColumn id="2" xr3:uid="{B07D9F84-C016-4C70-8120-EA7AADAD96B4}" name="UserID"/>
-    <tableColumn id="3" xr3:uid="{7E12C37C-EB33-454E-B732-9F01DB291635}" name="Mode"/>
-    <tableColumn id="4" xr3:uid="{1B01A1A3-A1AF-45D1-AB83-C7F8F532EDA1}" name="Lower Rate Limit"/>
-    <tableColumn id="5" xr3:uid="{CFE19ABE-916D-44CF-9533-E3D7518F5BAA}" name="Upper Rate Limit"/>
-    <tableColumn id="6" xr3:uid="{46203F0D-9FCB-42B5-BCE7-88BE51A58BE6}" name="Maximum Sensor Rate Limit"/>
-    <tableColumn id="7" xr3:uid="{507D8F4E-15BC-4EEE-B050-1F24A4D7C296}" name="Fixed AV Delay"/>
-    <tableColumn id="8" xr3:uid="{53BEBFA5-C1D6-46B4-97AF-D7820780AEAE}" name="Minimum Dynamic AV Delay"/>
-    <tableColumn id="9" xr3:uid="{05F0BA99-561C-4CB7-85F3-9B70F9CC41EC}" name="Sensed AV Delay Offset"/>
-    <tableColumn id="10" xr3:uid="{9AF00FF3-EA72-4BC5-9C41-958A3DFB18E1}" name="Atrial Pulse Amplitude"/>
-    <tableColumn id="11" xr3:uid="{1C2559A1-D306-4B7E-9598-0E05D403D89C}" name="Ventricular Pulse Amplitude"/>
-    <tableColumn id="12" xr3:uid="{E2D68AD3-FD67-4F53-8072-184C2E5318F6}" name="Atrial Pulse Width"/>
-    <tableColumn id="13" xr3:uid="{2CA55B7B-D9C3-4BEA-8915-7ADC83EB207C}" name="Ventricular Pulse Width"/>
-    <tableColumn id="14" xr3:uid="{D25B2401-EC2F-4EE7-99B8-4000AC636CAD}" name="Atrial Sensitivity"/>
-    <tableColumn id="15" xr3:uid="{8A6D464B-7B64-43F8-97CF-6E27BED1C175}" name="Ventricular Sensitivity "/>
-    <tableColumn id="16" xr3:uid="{1B572D91-BA92-4154-861C-5A3A5A74BCAA}" name="Ventricular Refractory Period"/>
-    <tableColumn id="17" xr3:uid="{CE954738-BD17-48D1-A8FB-B212FE55585C}" name="Atrial Refractory Period"/>
-    <tableColumn id="18" xr3:uid="{F20355AC-EBBC-49BE-93FB-EE500F6B83B0}" name="PVARP"/>
-    <tableColumn id="19" xr3:uid="{2546C073-2932-4F61-B0AB-98A470558AC0}" name="PVARP Extension"/>
-    <tableColumn id="20" xr3:uid="{0655FB73-7465-4A8E-BCD0-536228204461}" name="Hysteresis Rate Limit"/>
-    <tableColumn id="21" xr3:uid="{B02AEBFF-5F27-465B-8A9E-348C101C5D7D}" name=" Rate Smoothing"/>
-    <tableColumn id="22" xr3:uid="{F033677B-E57B-4EDE-95CB-958C8E0CFE76}" name="ATR Mode"/>
-    <tableColumn id="23" xr3:uid="{07E19E5A-0739-4E4D-A3C5-1AD13A0586AC}" name="ATR Duration"/>
-    <tableColumn id="24" xr3:uid="{85EAB1F1-9841-4E55-A33B-E00E7B203034}" name="ATR Fallback Time"/>
-    <tableColumn id="25" xr3:uid="{FD3C4626-A90F-4622-B6B8-478987F201D7}" name="Ventricular Blanking"/>
-    <tableColumn id="26" xr3:uid="{AB8344B4-2A97-404F-BC96-EF471AB9871A}" name="Activity Threshold"/>
-    <tableColumn id="27" xr3:uid="{59FDD162-818E-4447-A787-80BE20E4587C}" name="Reaction Time"/>
-    <tableColumn id="28" xr3:uid="{5F36115A-886D-4129-B8EA-EC716E077EC8}" name="Response Factor"/>
-    <tableColumn id="29" xr3:uid="{A7EAB708-DDE3-4FBB-866D-5516FE372BD4}" name="Recovery Time"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,152 +451,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CB3C7F-CF6E-4F9D-9BB2-F3F03BC309F2}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="10.87890625" customWidth="1"/>
-    <col min="3" max="3" width="10.3515625" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.87890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.3515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B12"/>
+      <c r="C12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5AE9C5-FF3E-4CAE-B61D-60D3D3DFDA01}">
-  <dimension ref="A1:AC1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="25.234375" customWidth="1"/>
-    <col min="8" max="8" width="25.703125" customWidth="1"/>
-    <col min="9" max="9" width="21.41015625" customWidth="1"/>
-    <col min="10" max="10" width="20.64453125" customWidth="1"/>
-    <col min="11" max="11" width="25.29296875" customWidth="1"/>
-    <col min="13" max="13" width="21.76171875" customWidth="1"/>
-    <col min="15" max="15" width="20.76171875" customWidth="1"/>
-    <col min="16" max="16" width="26.29296875" customWidth="1"/>
-    <col min="17" max="17" width="21.64453125" customWidth="1"/>
+    <col min="6" max="6" width="25.234375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.41015625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.64453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.29296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.76171875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.76171875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="26.29296875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.64453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Core\Programming\REPOS\Pacemaker-DCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC772113-6BBA-4F58-AD97-17FB99FFE107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C1983-97B6-4A9B-801F-6578F5D24B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7" yWindow="80" windowWidth="25520" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
     <sheet name="PARAMETERS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,91 +34,91 @@
     <t>UserID</t>
   </si>
   <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Lower Rate Limit</t>
+  </si>
+  <si>
+    <t>Upper Rate Limit</t>
+  </si>
+  <si>
+    <t>Maximum Sensor Rate Limit</t>
+  </si>
+  <si>
+    <t>Fixed AV Delay</t>
+  </si>
+  <si>
+    <t>Minimum Dynamic AV Delay</t>
+  </si>
+  <si>
+    <t>Sensed AV Delay Offset</t>
+  </si>
+  <si>
+    <t>Atrial Pulse Amplitude</t>
+  </si>
+  <si>
+    <t>Ventricular Pulse Amplitude</t>
+  </si>
+  <si>
+    <t>Atrial Pulse Width</t>
+  </si>
+  <si>
+    <t>Ventricular Pulse Width</t>
+  </si>
+  <si>
+    <t>Atrial Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventricular Sensitivity </t>
+  </si>
+  <si>
+    <t>Ventricular Refractory Period</t>
+  </si>
+  <si>
+    <t>Atrial Refractory Period</t>
+  </si>
+  <si>
+    <t>PVARP</t>
+  </si>
+  <si>
+    <t>PVARP Extension</t>
+  </si>
+  <si>
+    <t>Hysteresis Rate Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate Smoothing</t>
+  </si>
+  <si>
+    <t>ATR Mode</t>
+  </si>
+  <si>
+    <t>ATR Duration</t>
+  </si>
+  <si>
+    <t>ATR Fallback Time</t>
+  </si>
+  <si>
+    <t>Ventricular Blanking</t>
+  </si>
+  <si>
+    <t>Activity Threshold</t>
+  </si>
+  <si>
+    <t>Reaction Time</t>
+  </si>
+  <si>
+    <t>Response Factor</t>
+  </si>
+  <si>
+    <t>Recovery Time</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Lower Rate Limit</t>
-  </si>
-  <si>
-    <t>Upper Rate Limit</t>
-  </si>
-  <si>
-    <t>Maximum Sensor Rate Limit</t>
-  </si>
-  <si>
-    <t>Fixed AV Delay</t>
-  </si>
-  <si>
-    <t>Minimum Dynamic AV Delay</t>
-  </si>
-  <si>
-    <t>Sensed AV Delay Offset</t>
-  </si>
-  <si>
-    <t>Atrial Pulse Amplitude</t>
-  </si>
-  <si>
-    <t>Ventricular Pulse Amplitude</t>
-  </si>
-  <si>
-    <t>Atrial Pulse Width</t>
-  </si>
-  <si>
-    <t>Ventricular Pulse Width</t>
-  </si>
-  <si>
-    <t>Atrial Sensitivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventricular Sensitivity </t>
-  </si>
-  <si>
-    <t>Ventricular Refractory Period</t>
-  </si>
-  <si>
-    <t>Atrial Refractory Period</t>
-  </si>
-  <si>
-    <t>PVARP</t>
-  </si>
-  <si>
-    <t>PVARP Extension</t>
-  </si>
-  <si>
-    <t>Hysteresis Rate Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate Smoothing</t>
-  </si>
-  <si>
-    <t>ATR Mode</t>
-  </si>
-  <si>
-    <t>ATR Duration</t>
-  </si>
-  <si>
-    <t>ATR Fallback Time</t>
-  </si>
-  <si>
-    <t>Ventricular Blanking</t>
-  </si>
-  <si>
-    <t>Activity Threshold</t>
-  </si>
-  <si>
-    <t>Reaction Time</t>
-  </si>
-  <si>
-    <t>Response Factor</t>
-  </si>
-  <si>
-    <t>Recovery Time</t>
   </si>
 </sst>
 </file>
@@ -146,9 +154,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,15 +461,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.87890625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.87890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
@@ -470,42 +477,77 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <f>ROW()</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="1"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="1"/>
+      <c r="A4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="1"/>
+      <c r="A5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" s="1"/>
+      <c r="A6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" s="1"/>
+      <c r="A7">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="1"/>
+      <c r="A8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="1"/>
+      <c r="A9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" s="1"/>
+      <c r="A10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="1"/>
+      <c r="A11">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="A12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -517,21 +559,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="25.234375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.41015625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.64453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.29296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.76171875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.76171875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26.29296875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.64453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.234375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.41015625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.64453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.29296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.76171875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.76171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.29296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.64453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.5">
@@ -539,89 +581,89 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1,142 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Core\Programming\REPOS\Pacemaker-DCM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C1983-97B6-4A9B-801F-6578F5D24B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7" yWindow="80" windowWidth="25520" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13986" windowWidth="25786" xWindow="-93" yWindow="-93"/>
   </bookViews>
   <sheets>
-    <sheet name="USERS" sheetId="1" r:id="rId1"/>
-    <sheet name="PARAMETERS" sheetId="2" r:id="rId2"/>
+    <sheet name="USERS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PARAMETERS" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Lower Rate Limit</t>
-  </si>
-  <si>
-    <t>Upper Rate Limit</t>
-  </si>
-  <si>
-    <t>Maximum Sensor Rate Limit</t>
-  </si>
-  <si>
-    <t>Fixed AV Delay</t>
-  </si>
-  <si>
-    <t>Minimum Dynamic AV Delay</t>
-  </si>
-  <si>
-    <t>Sensed AV Delay Offset</t>
-  </si>
-  <si>
-    <t>Atrial Pulse Amplitude</t>
-  </si>
-  <si>
-    <t>Ventricular Pulse Amplitude</t>
-  </si>
-  <si>
-    <t>Atrial Pulse Width</t>
-  </si>
-  <si>
-    <t>Ventricular Pulse Width</t>
-  </si>
-  <si>
-    <t>Atrial Sensitivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventricular Sensitivity </t>
-  </si>
-  <si>
-    <t>Ventricular Refractory Period</t>
-  </si>
-  <si>
-    <t>Atrial Refractory Period</t>
-  </si>
-  <si>
-    <t>PVARP</t>
-  </si>
-  <si>
-    <t>PVARP Extension</t>
-  </si>
-  <si>
-    <t>Hysteresis Rate Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rate Smoothing</t>
-  </si>
-  <si>
-    <t>ATR Mode</t>
-  </si>
-  <si>
-    <t>ATR Duration</t>
-  </si>
-  <si>
-    <t>ATR Fallback Time</t>
-  </si>
-  <si>
-    <t>Ventricular Blanking</t>
-  </si>
-  <si>
-    <t>Activity Threshold</t>
-  </si>
-  <si>
-    <t>Reaction Time</t>
-  </si>
-  <si>
-    <t>Response Factor</t>
-  </si>
-  <si>
-    <t>Recovery Time</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,25 +44,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -458,212 +341,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.87890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3515625" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="15"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.87890625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="10.3515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <f>ROW()</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <f>ROW()</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <f>ROW()</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <f>ROW()</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <f>ROW()</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <f>ROW()</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <f>ROW()</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <f>ROW()</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <f>ROW()</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <f>ROW()</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <f>ROW()</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20.3515625" defaultRowHeight="14.35" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" width="25.234375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.41015625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.64453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.29296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.76171875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.76171875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="26.29296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.64453125" style="1" customWidth="1"/>
+    <col customWidth="1" max="5" min="5" style="1" width="25.234375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="21.41015625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="20.64453125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="25.29296875"/>
+    <col customWidth="1" max="10" min="10" style="1" width="20.76171875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="26.29296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lower Rate Limit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Maximum Sensor Rate Limit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fixed AV Delay</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Atrial Pulse Amplitude</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ventricular Pulse Amplitude</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Atrial Pulse Width</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Ventricular Pulse Width</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ventricular Refractory Period</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Atrial Refractory Period</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Activity Threshold</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Reaction Time</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Response Factor</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Recovery Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>ROW()</f>
+        <v/>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DOO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>ROW()</f>
+        <v/>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DOO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>ROW()</f>
+        <v/>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f>ROW()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f>ROW()</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13986" windowWidth="25786" xWindow="-93" yWindow="-93"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13720" windowWidth="25313" xWindow="80" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" state="visible" r:id="rId1"/>
@@ -352,7 +352,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="15"/>
     <col customWidth="1" max="2" min="2" style="1" width="10.87890625"/>
@@ -383,12 +383,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>hello</t>
         </is>
       </c>
     </row>
@@ -413,11 +413,31 @@
         <f>ROW()</f>
         <v/>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
         <f>ROW()</f>
         <v/>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -480,7 +500,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="20.3515625" defaultRowHeight="14.35" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20.3515625" defaultRowHeight="14.35"/>
   <cols>
     <col customWidth="1" max="5" min="5" style="1" width="25.234375"/>
     <col customWidth="1" max="6" min="6" style="1" width="21.41015625"/>
@@ -574,17 +594,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DOO</t>
+          <t>AOO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -594,17 +614,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -614,27 +634,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>500</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>V-Low</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -650,7 +670,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DOO</t>
+          <t>AAI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,7 +690,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -724,6 +744,11 @@
         <f>ROW()</f>
         <v/>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AOO</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>60</t>
@@ -794,6 +819,76 @@
       <c r="A5">
         <f>ROW()</f>
         <v/>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AOO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="6">

--- a/database.xlsx
+++ b/database.xlsx
@@ -352,7 +352,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="15"/>
     <col customWidth="1" max="2" min="2" style="1" width="10.87890625"/>
@@ -500,7 +500,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="20.3515625" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20.3515625" defaultRowHeight="14.35" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="5" min="5" style="1" width="25.234375"/>
     <col customWidth="1" max="6" min="6" style="1" width="21.41015625"/>
@@ -594,17 +594,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AOO</t>
+          <t>VVI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -634,27 +634,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>250</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>V-Low</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
